--- a/translations/parent_text_crisis_palestine/excel files/survey.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/survey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Arabic</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,6 +457,11 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,6 +470,11 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +483,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -476,6 +496,11 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -484,6 +509,11 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -492,6 +522,11 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -500,6 +535,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -508,6 +548,11 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +561,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,6 +574,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -532,6 +587,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -540,6 +600,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,6 +613,11 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -556,6 +626,11 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -564,6 +639,11 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -572,6 +652,11 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -580,6 +665,11 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,6 +678,11 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +691,11 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -604,6 +704,11 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,6 +717,11 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -620,6 +730,11 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -628,6 +743,11 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -636,6 +756,11 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -644,6 +769,11 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -652,6 +782,11 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -660,6 +795,11 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -668,6 +808,11 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -676,6 +821,11 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -684,6 +834,11 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -692,6 +847,11 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -700,6 +860,11 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -708,6 +873,11 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -716,6 +886,11 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -724,6 +899,11 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -732,6 +912,11 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -740,6 +925,11 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -748,6 +938,11 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -756,6 +951,11 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -764,6 +964,11 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -772,6 +977,11 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -780,6 +990,11 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -788,6 +1003,11 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -796,6 +1016,11 @@
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -804,6 +1029,11 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -812,6 +1042,11 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -820,6 +1055,11 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -828,6 +1068,11 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -836,6 +1081,11 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -844,6 +1094,11 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -852,6 +1107,11 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -860,6 +1120,11 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -868,6 +1133,11 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -876,6 +1146,11 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -884,6 +1159,11 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -892,6 +1172,11 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -900,6 +1185,11 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -908,6 +1198,11 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -916,6 +1211,11 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -924,6 +1224,11 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -932,6 +1237,11 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -940,6 +1250,11 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -948,6 +1263,11 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -956,6 +1276,11 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -964,6 +1289,11 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -972,6 +1302,11 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -980,6 +1315,11 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -988,6 +1328,11 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -996,6 +1341,11 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1004,6 +1354,11 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1012,6 +1367,11 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1020,6 +1380,11 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1028,6 +1393,11 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1036,6 +1406,11 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1044,6 +1419,11 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1052,6 +1432,11 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1060,6 +1445,11 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1068,6 +1458,11 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1076,6 +1471,11 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1084,6 +1484,11 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1092,6 +1497,11 @@
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1100,6 +1510,11 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1108,6 +1523,11 @@
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1116,6 +1536,11 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1124,6 +1549,11 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1132,6 +1562,11 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1140,6 +1575,11 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1148,6 +1588,11 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1156,6 +1601,11 @@
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1164,6 +1614,11 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1172,6 +1627,11 @@
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1180,6 +1640,11 @@
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1188,6 +1653,11 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1196,6 +1666,11 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1204,6 +1679,11 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1212,6 +1692,11 @@
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1220,6 +1705,11 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/translations/parent_text_crisis_palestine/excel files/survey.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/survey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>not at all</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>not at all</t>
+          <t>some days</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>some days</t>
+          <t>more than half the days</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>more than half the days</t>
+          <t>nearly every day</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nearly every day</t>
+          <t>prefer not to answer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>prefer not to answer</t>
+          <t>0 days</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0 days</t>
+          <t>1 day</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1 day</t>
+          <t>2 days</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2 days</t>
+          <t>3 days</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3 days</t>
+          <t>4 days</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4 days</t>
+          <t>5 days</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5 days</t>
+          <t>6 days</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6 days</t>
+          <t>7 days</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7 days</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>living in a camp or shelter</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>living in a camp or shelter</t>
+          <t>living in a house or apartment</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>living in a house or apartment</t>
+          <t>moving around often</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>moving around often</t>
+          <t>palestinian</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>palestinian</t>
+          <t>lebanese</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lebanese</t>
+          <t>syrian</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>syrian</t>
+          <t>jordanian</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jordanian</t>
+          <t>yemeni</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>yemeni</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>my whole life</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>my whole life</t>
+          <t>less than 1 year</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>less than 1 year</t>
+          <t>1-5 years</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1-5 years</t>
+          <t>5-10 years</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5-10 years</t>
+          <t>more than 10 years</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>more than 10 years</t>
+          <t>not displaced</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>not displaced</t>
+          <t>yes, all of the tips helped</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>yes, all of the tips helped</t>
+          <t>yes, many of the tips helped</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>yes, many of the tips helped</t>
+          <t>yes, a few of the tips helped</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1688,24 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>yes, a few of the tips helped</t>
+          <t>none of the tips helped</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>none of the tips helped</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
         <is>
           <t>arguments</t>
         </is>
